--- a/data/metropolis_binning/binning.xlsx
+++ b/data/metropolis_binning/binning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Immanuel\Documents\_Programming\my_rust\lattice_qft\data\metropolis_binning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728FE0E6-954A-4317-AFC1-A80709781CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F372258-C9C2-4B6E-853B-743D4651888E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12540" yWindow="90" windowWidth="33690" windowHeight="23190" activeTab="1" xr2:uid="{8505DA8A-B42C-4485-8180-5773343FEDE8}"/>
   </bookViews>
@@ -103,21 +103,6 @@
     <t>error</t>
   </si>
   <si>
-    <t>bins2.error</t>
-  </si>
-  <si>
-    <t>bins0_8.error</t>
-  </si>
-  <si>
-    <t>bins0_1.error</t>
-  </si>
-  <si>
-    <t>bins0_01.error</t>
-  </si>
-  <si>
-    <t>bins0_001.error</t>
-  </si>
-  <si>
     <t>burnin</t>
   </si>
   <si>
@@ -127,10 +112,25 @@
     <t>observable</t>
   </si>
   <si>
-    <t>bins1.error</t>
+    <t>temp = 2</t>
   </si>
   <si>
-    <t>bins1_58.error</t>
+    <t>temp = 1.58</t>
+  </si>
+  <si>
+    <t>temp = 1</t>
+  </si>
+  <si>
+    <t>temp = 0.8</t>
+  </si>
+  <si>
+    <t>temp = 0.1</t>
+  </si>
+  <si>
+    <t>temp = 0.01</t>
+  </si>
+  <si>
+    <t>temp = 0.001</t>
   </si>
 </sst>
 </file>
@@ -280,7 +280,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>bins2.error</c:v>
+                  <c:v>temp = 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -479,7 +479,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>bins1_58.error</c:v>
+                  <c:v>temp = 1.58</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -678,7 +678,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>bins1.error</c:v>
+                  <c:v>temp = 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -877,7 +877,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>bins0_8.error</c:v>
+                  <c:v>temp = 0.8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1076,7 +1076,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>bins0_1.error</c:v>
+                  <c:v>temp = 0.1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1275,7 +1275,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>bins0_01.error</c:v>
+                  <c:v>temp = 0.01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1474,7 +1474,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>bins0_001.error</c:v>
+                  <c:v>temp = 0.001</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2778,13 +2778,13 @@
   <autoFilter ref="A1:H24" xr:uid="{E95795C3-6A36-49E4-8C86-49C56BAFBF8C}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{1AFC1BC9-B2BF-41BE-9C1F-2B741C10C02B}" uniqueName="1" name="binning_step" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{7EE773BC-14D1-4C39-AFA7-B3A82CDA4DF8}" uniqueName="2" name="bins2.error" queryTableFieldId="2"/>
-    <tableColumn id="8" xr3:uid="{18DCB6A8-57BB-4F24-92B2-9882E1AB959A}" uniqueName="8" name="bins1_58.error" queryTableFieldId="9"/>
-    <tableColumn id="7" xr3:uid="{85B2676B-D7C7-4534-8E19-5FFD7CAC49E9}" uniqueName="7" name="bins1.error" queryTableFieldId="7"/>
-    <tableColumn id="3" xr3:uid="{C780C26C-33F8-4076-86AA-98A6BC64728E}" uniqueName="3" name="bins0_8.error" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{D14EBCFE-A03B-466B-AF6C-8855CA180A53}" uniqueName="4" name="bins0_1.error" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{BC86898E-250D-48F9-BCC6-D765999923EE}" uniqueName="5" name="bins0_01.error" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{4F638ABF-11D1-4636-992C-6976960DAB6B}" uniqueName="6" name="bins0_001.error" queryTableFieldId="6"/>
+    <tableColumn id="2" xr3:uid="{7EE773BC-14D1-4C39-AFA7-B3A82CDA4DF8}" uniqueName="2" name="temp = 2" queryTableFieldId="2"/>
+    <tableColumn id="8" xr3:uid="{18DCB6A8-57BB-4F24-92B2-9882E1AB959A}" uniqueName="8" name="temp = 1.58" queryTableFieldId="9"/>
+    <tableColumn id="7" xr3:uid="{85B2676B-D7C7-4534-8E19-5FFD7CAC49E9}" uniqueName="7" name="temp = 1" queryTableFieldId="7"/>
+    <tableColumn id="3" xr3:uid="{C780C26C-33F8-4076-86AA-98A6BC64728E}" uniqueName="3" name="temp = 0.8" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{D14EBCFE-A03B-466B-AF6C-8855CA180A53}" uniqueName="4" name="temp = 0.1" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{BC86898E-250D-48F9-BCC6-D765999923EE}" uniqueName="5" name="temp = 0.01" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{4F638ABF-11D1-4636-992C-6976960DAB6B}" uniqueName="6" name="temp = 0.001" queryTableFieldId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3202,13 +3202,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3308,13 +3308,13 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="C1" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -3328,25 +3328,25 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3949,7 +3949,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LMasterthesis preparations&amp;CMetropolis Simulation
 2x2x2 Metropolis Simulation Error with 10'000'000 Iterations
